--- a/orkin_nash_crn.xlsx
+++ b/orkin_nash_crn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/erika_rasnick_cchmc_org/Documents/grapph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cchmc-my.sharepoint.com/personal/erika_rasnick_cchmc_org/Documents/NASH_CRN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{4AB637D2-0F8D-1341-B401-FCF3F74C4FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B174BED-2CA9-4972-9BF6-1903535C6EA6}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="13_ncr:1_{4AB637D2-0F8D-1341-B401-FCF3F74C4FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8F53CF-F646-C446-99EC-A5877D41187C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{76A70884-964D-9D46-AECB-8B65A1F5E6A9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="178">
   <si>
     <t>database</t>
   </si>
@@ -58,12 +58,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>methods</t>
-  </si>
-  <si>
     <t>ACS</t>
   </si>
   <si>
@@ -79,18 +73,6 @@
     <t>fraction households with public assistance income in the past 12 months</t>
   </si>
   <si>
-    <t>tract</t>
-  </si>
-  <si>
-    <t>obtain from tidycensus at tract level; note census variables used in calculations</t>
-  </si>
-  <si>
-    <t>school eligibility for free or reduced-price lunch</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>acs_poverty_rate</t>
   </si>
   <si>
@@ -151,15 +133,6 @@
     <t>fraction of houses that are vacant</t>
   </si>
   <si>
-    <t>home foreclosure rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foreclosure risk score? </t>
-  </si>
-  <si>
-    <t>https://www.huduser.gov/portal/NSP2datadesc.html</t>
-  </si>
-  <si>
     <t>acs_fraction_hs_edu</t>
   </si>
   <si>
@@ -205,9 +178,6 @@
     <t>high income white non-Hispanic households versus  low income people of color households</t>
   </si>
   <si>
-    <t>The Public Health Disparities Geocoding Project https://www.hsph.harvard.edu/thegeocodingproject/covid-19-resources/</t>
-  </si>
-  <si>
     <t>acs_crowding</t>
   </si>
   <si>
@@ -220,9 +190,6 @@
     <t>fraction households with &gt;1 person per room</t>
   </si>
   <si>
-    <t>Readily available at tract level</t>
-  </si>
-  <si>
     <t>material deprivation index</t>
   </si>
   <si>
@@ -244,9 +211,6 @@
     <t>https://data.diversitydatakids.org/dataset/coi20-child-opportunity-index-2-0-database</t>
   </si>
   <si>
-    <t>download tract-level data from each site and merge to master tract spreadsheet</t>
-  </si>
-  <si>
     <t>coi_health_env</t>
   </si>
   <si>
@@ -421,12 +385,6 @@
     <t>https://data.hrsa.gov/data/download</t>
   </si>
   <si>
-    <t>Readily available at other geography</t>
-  </si>
-  <si>
-    <t>area weighted average of block groups to tracts</t>
-  </si>
-  <si>
     <t>EJ Screen</t>
   </si>
   <si>
@@ -445,9 +403,6 @@
     <t>https://gaftp.epa.gov/EJSCREEN/2020/EJSCREEN_2020_USPR.csv.zip</t>
   </si>
   <si>
-    <t>block group</t>
-  </si>
-  <si>
     <t>ej_diesel_pm</t>
   </si>
   <si>
@@ -580,56 +535,47 @@
     <t>2019 Food Insecurity %</t>
   </si>
   <si>
-    <t>county</t>
-  </si>
-  <si>
-    <t>match county to tract id</t>
-  </si>
-  <si>
-    <t>Exisiting DeGAUSS products</t>
-  </si>
-  <si>
-    <t>geocoder</t>
-  </si>
-  <si>
-    <t>DeGAUSS</t>
-  </si>
-  <si>
-    <t>exact</t>
-  </si>
-  <si>
-    <t>use existing contianers (may need to add sites to drivetime)</t>
-  </si>
-  <si>
-    <t>census block group / tract</t>
-  </si>
-  <si>
-    <t>greenspace (EVI)</t>
-  </si>
-  <si>
-    <t>exact (500, 1500, 2500 m buffers)</t>
-  </si>
-  <si>
-    <t>greenspace (nlcd)</t>
-  </si>
-  <si>
-    <t>exact (30 x 30 m grid)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drivetime </t>
-  </si>
-  <si>
-    <t>average annual daily traffic</t>
-  </si>
-  <si>
-    <t>proximity to roads</t>
+    <t>deprivation index</t>
+  </si>
+  <si>
+    <t>see https://geomarker.io/dep_index/</t>
+  </si>
+  <si>
+    <t>https://geomarker.io/dep_index/</t>
+  </si>
+  <si>
+    <t>childhood opportunity index education domain</t>
+  </si>
+  <si>
+    <t>childhood opportunity index health and environment domain</t>
+  </si>
+  <si>
+    <t>childhood opportunity index social and economic domain</t>
+  </si>
+  <si>
+    <t>childhood opportunity index overall</t>
+  </si>
+  <si>
+    <t>social deprivation index score</t>
+  </si>
+  <si>
+    <t>percentage of healthy food retailers</t>
+  </si>
+  <si>
+    <t>feedingamerica.org</t>
+  </si>
+  <si>
+    <t>"yes" if the tract falls within an area with a shortage of medical professionals</t>
+  </si>
+  <si>
+    <t>estimated percentage of population in food insecure households</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -669,12 +615,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -682,34 +622,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0CECE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -717,44 +651,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1070,24 +982,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D38D575-1E5F-884D-A32B-B4CECA5D905E}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="45.25" customWidth="1"/>
-    <col min="4" max="5" width="47" customWidth="1"/>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="9" width="33.125" customWidth="1"/>
+    <col min="1" max="2" width="33" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.1640625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="47" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1109,329 +1020,315 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" s="2">
         <v>2019</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G4" s="2">
         <v>2019</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8" t="s">
-        <v>18</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" s="2">
         <v>2019</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>22</v>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G6" s="2">
         <v>2019</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" s="2">
         <v>2019</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="2">
         <v>2019</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8" t="s">
-        <v>34</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G9" s="2">
         <v>2019</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="G10" s="2">
         <v>2019</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8" t="s">
-        <v>41</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G11" s="2">
         <v>2019</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G12" s="2">
         <v>2019</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="G13" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8" t="s">
-        <v>52</v>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8" t="s">
-        <v>57</v>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>59</v>
@@ -1440,749 +1337,620 @@
         <v>60</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="G15" s="2">
         <v>2019</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="4" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" t="s">
+      <c r="C16" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="G17">
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="2">
         <v>2018</v>
       </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="10" customFormat="1" ht="15.75">
-      <c r="A18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="10">
-        <v>2019</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="10" customFormat="1" ht="15.75">
-      <c r="B19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" s="10" customFormat="1" ht="15.75">
-      <c r="B20" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" s="10" customFormat="1" ht="15.75">
-      <c r="B21" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75">
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" s="10" customFormat="1" ht="15.75">
-      <c r="A24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="10" t="s">
+      <c r="G22" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D23" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="E23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G24" s="10">
-        <v>2015</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" t="s">
+      <c r="C24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D24" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C25" t="s">
+      <c r="E24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G25">
+      <c r="E25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="2">
         <v>2018</v>
       </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75">
-      <c r="B26" t="s">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75">
-      <c r="B27" t="s">
+      <c r="G26" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75">
-      <c r="B28" t="s">
+      <c r="D27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E27" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75">
-      <c r="B29" t="s">
+      <c r="G27" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" s="10" customFormat="1" ht="15.75">
-      <c r="A30" s="10" t="s">
+      <c r="E28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="F28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="B29" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G30" s="10">
-        <v>2011</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" t="s">
+      <c r="C29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G29" s="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E31" t="s">
+      <c r="C30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F31" t="s">
+      <c r="D30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G31">
-        <v>2019</v>
-      </c>
-      <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75">
-      <c r="B32" t="s">
+      <c r="E30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G30" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E32" t="s">
+      <c r="C31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G32">
-        <v>2019</v>
-      </c>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" s="10" customFormat="1" ht="15.75">
-      <c r="A33" s="10" t="s">
+      <c r="D31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="E31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="F31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="10" t="s">
+      <c r="C32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="10">
-        <v>2022</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="9" t="s">
+      <c r="D32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="14" t="s">
+      <c r="E32" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="8" t="s">
+      <c r="F32" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C33" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D33" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E33" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="F33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="C34" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G35" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="9"/>
-      <c r="B36" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F36" s="2"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G36" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="9"/>
-      <c r="B37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="2"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G37" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="9"/>
-      <c r="B38" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F38" s="2"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G38" s="2">
-        <v>2017</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="9"/>
-      <c r="B39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G39" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="9"/>
-      <c r="B40" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="G40" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="9"/>
-      <c r="B41" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>158</v>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="F41" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="G41" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="9"/>
-      <c r="B42" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="9"/>
-      <c r="B43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <v>2021</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="9"/>
-      <c r="B44" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="9"/>
-      <c r="B45" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2">
-        <v>2018</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>2019</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" t="s">
-        <v>184</v>
-      </c>
-      <c r="F48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H48" t="s">
-        <v>186</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" t="s">
-        <v>188</v>
-      </c>
-      <c r="F49" t="s">
-        <v>185</v>
-      </c>
-      <c r="H49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="16"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" t="s">
-        <v>189</v>
-      </c>
-      <c r="F50" t="s">
-        <v>185</v>
-      </c>
-      <c r="G50">
-        <v>2018</v>
-      </c>
-      <c r="H50" t="s">
-        <v>190</v>
-      </c>
-      <c r="I50" s="16"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.95" customHeight="1">
-      <c r="A51" t="s">
-        <v>191</v>
-      </c>
-      <c r="F51" t="s">
-        <v>185</v>
-      </c>
-      <c r="H51" t="s">
-        <v>192</v>
-      </c>
-      <c r="I51" s="16"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" t="s">
-        <v>185</v>
-      </c>
-      <c r="H52" t="s">
-        <v>186</v>
-      </c>
-      <c r="I52" s="16"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" t="s">
-        <v>185</v>
-      </c>
-      <c r="H53" t="s">
-        <v>186</v>
-      </c>
-      <c r="I53" s="16"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" t="s">
-        <v>185</v>
-      </c>
-      <c r="H54" t="s">
-        <v>186</v>
-      </c>
-      <c r="I54" s="16"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75">
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75"/>
-    <row r="57" spans="1:9" ht="15.75"/>
-    <row r="59" spans="1:9" ht="15.75"/>
-    <row r="60" spans="1:9" ht="15.75"/>
-    <row r="61" spans="1:9" ht="15.75"/>
-    <row r="62" spans="1:9" ht="15.75"/>
-    <row r="63" spans="1:9" ht="15.75"/>
-    <row r="64" spans="1:9" ht="15.75"/>
-    <row r="65" ht="15.75"/>
-    <row r="66" ht="15.75"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="I3:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I18:I33"/>
-    <mergeCell ref="I48:I54"/>
-    <mergeCell ref="I34:I45"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{49A443B8-3C57-46AD-AFF1-D388DB4909AF}"/>
-    <hyperlink ref="F30" r:id="rId2" xr:uid="{A773F68E-7C41-4B1A-A271-3940D8BCBC5F}"/>
-    <hyperlink ref="F35" r:id="rId3" xr:uid="{C0D46600-89CD-41B9-B0F5-5E2C9B7AA248}"/>
+    <hyperlink ref="F26" r:id="rId1" xr:uid="{A773F68E-7C41-4B1A-A271-3940D8BCBC5F}"/>
+    <hyperlink ref="F30" r:id="rId2" xr:uid="{C0D46600-89CD-41B9-B0F5-5E2C9B7AA248}"/>
+    <hyperlink ref="F31:F40" r:id="rId3" display="https://gaftp.epa.gov/EJSCREEN/2020/EJSCREEN_2020_USPR.csv.zip" xr:uid="{977D695C-AEDC-B848-A423-10636650F660}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2383,13 +2151,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE04133-85FF-4CD4-8DA4-9675F3145D99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEE04133-85FF-4CD4-8DA4-9675F3145D99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BE00F0-1044-4AC3-890B-CDB1D5DD6A33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75BE00F0-1044-4AC3-890B-CDB1D5DD6A33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e33505e-f143-4115-8eba-37b47d3aa1c6"/>
+    <ds:schemaRef ds:uri="b7b28bfe-e874-4a90-89f9-0d5b4a018804"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CA41F6-040A-447C-AF3C-55E21AF10381}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3CA41F6-040A-447C-AF3C-55E21AF10381}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b7b28bfe-e874-4a90-89f9-0d5b4a018804"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0e33505e-f143-4115-8eba-37b47d3aa1c6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>